--- a/InputData/trans/PCiCDTdtTDM/Perc Chng in Cargo Dist Transported due to TDM.xlsx
+++ b/InputData/trans/PCiCDTdtTDM/Perc Chng in Cargo Dist Transported due to TDM.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipL\InputData\trans\PCiCDTdtTDM\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="360" yWindow="120" windowWidth="21075" windowHeight="10290"/>
   </bookViews>
@@ -13,7 +18,7 @@
     <sheet name="Calcs" sheetId="5" r:id="rId4"/>
     <sheet name="PCiCDTdtTDM" sheetId="6" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="145621" calcOnSave="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -171,9 +176,6 @@
   </si>
   <si>
     <t>motorbikes</t>
-  </si>
-  <si>
-    <t>Vehicle Type</t>
   </si>
   <si>
     <t>PCiCDTdtTDM Perc Change in Cargo Dist Transported due to TDM</t>
@@ -257,11 +259,14 @@
   <si>
     <t>freight</t>
   </si>
+  <si>
+    <t>Percent Change (dimensionless)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
@@ -338,7 +343,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -359,6 +364,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -370,6 +378,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -560,7 +571,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -595,7 +606,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -812,7 +823,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -840,12 +851,12 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -975,17 +986,17 @@
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1155,7 +1166,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -1176,13 +1187,13 @@
         <v>24</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="4" t="s">
         <v>55</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>56</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>31</v>
@@ -1388,7 +1399,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -1396,7 +1407,7 @@
         <v>24</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>31</v>
@@ -1480,15 +1491,15 @@
     <col min="3" max="3" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>51</v>
+    <row r="1" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>65</v>
       </c>
       <c r="B1" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>64</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -1824,13 +1835,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7622029B-F07B-4072-B506-22E7AE1D4344}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDDCFA52-AC4C-4B1B-8A11-658EAEB7AF64}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6989177-338F-4041-9276-3E536744B865}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{04DC630F-A7CA-4CA9-83FE-1F3C95883448}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0CA47DC4-DB3D-42D9-B473-E160604A91E0}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A7BD4676-D1D3-4D6C-9732-8CE07342CF8A}"/>
 </file>